--- a/js/Расчеты_куба.xlsx
+++ b/js/Расчеты_куба.xlsx
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BN80" sqref="BN80"/>
+    <sheetView tabSelected="1" topLeftCell="N57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL59" sqref="AL59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4023,7 +4023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="33:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="28:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG49" s="13">
         <v>40</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="33:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="28:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG50" s="13">
         <v>48</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="33:64" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="28:64" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AG51" s="16">
         <v>56</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="33:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="28:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG52" s="63"/>
       <c r="AH52" s="63"/>
       <c r="AI52" s="63"/>
@@ -4359,7 +4359,7 @@
       <c r="BK52" s="63"/>
       <c r="BL52" s="63"/>
     </row>
-    <row r="53" spans="33:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="28:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG53" s="63"/>
       <c r="AH53" s="63"/>
       <c r="AI53" s="63"/>
@@ -4401,7 +4401,7 @@
       <c r="BK53" s="63"/>
       <c r="BL53" s="63"/>
     </row>
-    <row r="54" spans="33:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="28:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG54" s="63"/>
       <c r="AH54" s="63"/>
       <c r="AI54" s="63"/>
@@ -4443,7 +4443,7 @@
       <c r="BK54" s="63"/>
       <c r="BL54" s="63"/>
     </row>
-    <row r="55" spans="33:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="28:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG55" s="63"/>
       <c r="AH55" s="63"/>
       <c r="AI55" s="63"/>
@@ -4485,7 +4485,7 @@
       <c r="BK55" s="63"/>
       <c r="BL55" s="63"/>
     </row>
-    <row r="56" spans="33:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="28:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG56" s="63"/>
       <c r="AH56" s="63"/>
       <c r="AI56" s="63"/>
@@ -4527,7 +4527,7 @@
       <c r="BK56" s="63"/>
       <c r="BL56" s="63"/>
     </row>
-    <row r="57" spans="33:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="28:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG57" s="63"/>
       <c r="AH57" s="63"/>
       <c r="AI57" s="63"/>
@@ -4569,7 +4569,7 @@
       <c r="BK57" s="63"/>
       <c r="BL57" s="63"/>
     </row>
-    <row r="58" spans="33:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="28:64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG58" s="63"/>
       <c r="AH58" s="63"/>
       <c r="AI58" s="63"/>
@@ -4611,7 +4611,7 @@
       <c r="BK58" s="63"/>
       <c r="BL58" s="63"/>
     </row>
-    <row r="59" spans="33:64" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="28:64" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AG59" s="63"/>
       <c r="AH59" s="63"/>
       <c r="AI59" s="63"/>
@@ -4653,106 +4653,113 @@
       <c r="BK59" s="63"/>
       <c r="BL59" s="63"/>
     </row>
-    <row r="60" spans="33:64" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="33:64" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AN61" s="82">
+    <row r="60" spans="28:64" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD60" s="82">
+        <v>3</v>
+      </c>
+      <c r="AK60" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="28:64" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC61" s="82">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="32">
+        <v>7</v>
+      </c>
+      <c r="AE61" s="31">
+        <v>6</v>
+      </c>
+      <c r="AF61" s="32">
+        <v>5</v>
+      </c>
+      <c r="AG61" s="31">
+        <v>4</v>
+      </c>
+      <c r="AH61" s="32">
+        <v>3</v>
+      </c>
+      <c r="AI61" s="31">
+        <v>2</v>
+      </c>
+      <c r="AJ61" s="32">
         <v>1</v>
       </c>
-      <c r="AO61" s="41">
+      <c r="AK61" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="28:64" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB62" s="82">
+        <v>4</v>
+      </c>
+      <c r="AC62" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF62" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG62" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH62" s="2">
+        <v>4</v>
+      </c>
+      <c r="AI62" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ62" s="2">
+        <v>6</v>
+      </c>
+      <c r="AK62" s="3">
         <v>7</v>
       </c>
-      <c r="AP61" s="40">
+      <c r="AL62" s="23">
+        <v>7</v>
+      </c>
+      <c r="AM62" s="82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="28:64" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC63" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="4">
+        <v>8</v>
+      </c>
+      <c r="AE63" s="5">
+        <v>9</v>
+      </c>
+      <c r="AF63" s="5">
+        <v>10</v>
+      </c>
+      <c r="AG63" s="5">
+        <v>11</v>
+      </c>
+      <c r="AH63" s="5">
+        <v>12</v>
+      </c>
+      <c r="AI63" s="5">
+        <v>13</v>
+      </c>
+      <c r="AJ63" s="5">
+        <v>14</v>
+      </c>
+      <c r="AK63" s="6">
+        <v>15</v>
+      </c>
+      <c r="AL63" s="22">
         <v>6</v>
       </c>
-      <c r="AQ61" s="40">
-        <v>5</v>
-      </c>
-      <c r="AR61" s="40">
-        <v>4</v>
-      </c>
-      <c r="AS61" s="40">
-        <v>3</v>
-      </c>
-      <c r="AT61" s="40">
-        <v>2</v>
-      </c>
-      <c r="AU61" s="40">
-        <v>1</v>
-      </c>
-      <c r="AV61" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="33:64" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AN62" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP62" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ62" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR62" s="2">
-        <v>3</v>
-      </c>
-      <c r="AS62" s="2">
-        <v>4</v>
-      </c>
-      <c r="AT62" s="2">
-        <v>5</v>
-      </c>
-      <c r="AU62" s="2">
-        <v>6</v>
-      </c>
-      <c r="AV62" s="3">
-        <v>7</v>
-      </c>
-      <c r="AW62" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="33:64" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG63" s="63"/>
-      <c r="AH63" s="63"/>
-      <c r="AI63" s="63"/>
-      <c r="AJ63" s="63"/>
-      <c r="AK63" s="63"/>
-      <c r="AL63" s="63"/>
       <c r="AM63" s="63"/>
-      <c r="AN63" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO63" s="4">
-        <v>8</v>
-      </c>
-      <c r="AP63" s="5">
-        <v>9</v>
-      </c>
-      <c r="AQ63" s="5">
-        <v>10</v>
-      </c>
-      <c r="AR63" s="5">
-        <v>11</v>
-      </c>
-      <c r="AS63" s="5">
-        <v>12</v>
-      </c>
-      <c r="AT63" s="5">
-        <v>13</v>
-      </c>
-      <c r="AU63" s="5">
-        <v>14</v>
-      </c>
-      <c r="AV63" s="6">
-        <v>15</v>
-      </c>
-      <c r="AW63" s="32">
-        <v>6</v>
-      </c>
       <c r="AX63" s="63"/>
       <c r="AY63" s="63"/>
       <c r="AZ63" s="63"/>
@@ -4761,40 +4768,38 @@
       <c r="BK63" s="63"/>
       <c r="BL63" s="63"/>
     </row>
-    <row r="64" spans="33:64" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG64" s="63"/>
-      <c r="AL64" s="63"/>
+    <row r="64" spans="28:64" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC64" s="40">
+        <v>2</v>
+      </c>
+      <c r="AD64" s="4">
+        <v>16</v>
+      </c>
+      <c r="AE64" s="5">
+        <v>17</v>
+      </c>
+      <c r="AF64" s="5">
+        <v>18</v>
+      </c>
+      <c r="AG64" s="5">
+        <v>19</v>
+      </c>
+      <c r="AH64" s="5">
+        <v>20</v>
+      </c>
+      <c r="AI64" s="5">
+        <v>21</v>
+      </c>
+      <c r="AJ64" s="5">
+        <v>22</v>
+      </c>
+      <c r="AK64" s="6">
+        <v>23</v>
+      </c>
+      <c r="AL64" s="23">
+        <v>5</v>
+      </c>
       <c r="AM64" s="63"/>
-      <c r="AN64" s="11">
-        <v>2</v>
-      </c>
-      <c r="AO64" s="4">
-        <v>16</v>
-      </c>
-      <c r="AP64" s="5">
-        <v>17</v>
-      </c>
-      <c r="AQ64" s="5">
-        <v>18</v>
-      </c>
-      <c r="AR64" s="5">
-        <v>19</v>
-      </c>
-      <c r="AS64" s="5">
-        <v>20</v>
-      </c>
-      <c r="AT64" s="5">
-        <v>21</v>
-      </c>
-      <c r="AU64" s="5">
-        <v>22</v>
-      </c>
-      <c r="AV64" s="6">
-        <v>23</v>
-      </c>
-      <c r="AW64" s="31">
-        <v>5</v>
-      </c>
       <c r="AX64" s="63"/>
       <c r="AY64" s="63"/>
       <c r="AZ64" s="63"/>
@@ -4811,40 +4816,38 @@
       <c r="BK64" s="63"/>
       <c r="BL64" s="63"/>
     </row>
-    <row r="65" spans="29:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG65" s="63"/>
-      <c r="AL65" s="63"/>
+    <row r="65" spans="18:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC65" s="40">
+        <v>3</v>
+      </c>
+      <c r="AD65" s="4">
+        <v>24</v>
+      </c>
+      <c r="AE65" s="5">
+        <v>25</v>
+      </c>
+      <c r="AF65" s="5">
+        <v>26</v>
+      </c>
+      <c r="AG65" s="5">
+        <v>27</v>
+      </c>
+      <c r="AH65" s="5">
+        <v>28</v>
+      </c>
+      <c r="AI65" s="5">
+        <v>29</v>
+      </c>
+      <c r="AJ65" s="5">
+        <v>30</v>
+      </c>
+      <c r="AK65" s="6">
+        <v>31</v>
+      </c>
+      <c r="AL65" s="22">
+        <v>4</v>
+      </c>
       <c r="AM65" s="63"/>
-      <c r="AN65" s="11">
-        <v>3</v>
-      </c>
-      <c r="AO65" s="4">
-        <v>24</v>
-      </c>
-      <c r="AP65" s="5">
-        <v>25</v>
-      </c>
-      <c r="AQ65" s="5">
-        <v>26</v>
-      </c>
-      <c r="AR65" s="5">
-        <v>27</v>
-      </c>
-      <c r="AS65" s="5">
-        <v>28</v>
-      </c>
-      <c r="AT65" s="5">
-        <v>29</v>
-      </c>
-      <c r="AU65" s="5">
-        <v>30</v>
-      </c>
-      <c r="AV65" s="6">
-        <v>31</v>
-      </c>
-      <c r="AW65" s="32">
-        <v>4</v>
-      </c>
       <c r="AX65" s="63"/>
       <c r="AY65" s="63"/>
       <c r="AZ65" s="63"/>
@@ -4861,40 +4864,38 @@
       <c r="BK65" s="63"/>
       <c r="BL65" s="63"/>
     </row>
-    <row r="66" spans="29:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG66" s="63"/>
-      <c r="AL66" s="63"/>
+    <row r="66" spans="18:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC66" s="40">
+        <v>4</v>
+      </c>
+      <c r="AD66" s="4">
+        <v>32</v>
+      </c>
+      <c r="AE66" s="5">
+        <v>33</v>
+      </c>
+      <c r="AF66" s="5">
+        <v>34</v>
+      </c>
+      <c r="AG66" s="5">
+        <v>35</v>
+      </c>
+      <c r="AH66" s="5">
+        <v>36</v>
+      </c>
+      <c r="AI66" s="5">
+        <v>37</v>
+      </c>
+      <c r="AJ66" s="5">
+        <v>38</v>
+      </c>
+      <c r="AK66" s="6">
+        <v>39</v>
+      </c>
+      <c r="AL66" s="23">
+        <v>3</v>
+      </c>
       <c r="AM66" s="63"/>
-      <c r="AN66" s="11">
-        <v>4</v>
-      </c>
-      <c r="AO66" s="4">
-        <v>32</v>
-      </c>
-      <c r="AP66" s="5">
-        <v>33</v>
-      </c>
-      <c r="AQ66" s="5">
-        <v>34</v>
-      </c>
-      <c r="AR66" s="5">
-        <v>35</v>
-      </c>
-      <c r="AS66" s="5">
-        <v>36</v>
-      </c>
-      <c r="AT66" s="5">
-        <v>37</v>
-      </c>
-      <c r="AU66" s="5">
-        <v>38</v>
-      </c>
-      <c r="AV66" s="6">
-        <v>39</v>
-      </c>
-      <c r="AW66" s="31">
-        <v>3</v>
-      </c>
       <c r="AX66" s="63"/>
       <c r="AY66" s="63"/>
       <c r="AZ66" s="63"/>
@@ -4911,162 +4912,147 @@
       <c r="BK66" s="63"/>
       <c r="BL66" s="63"/>
     </row>
-    <row r="67" spans="29:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG67" s="63"/>
-      <c r="AH67" s="64"/>
-      <c r="AI67" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ67" s="64"/>
-      <c r="AK67" s="64"/>
-      <c r="AL67" s="63"/>
+    <row r="67" spans="18:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC67" s="40">
+        <v>5</v>
+      </c>
+      <c r="AD67" s="4">
+        <v>40</v>
+      </c>
+      <c r="AE67" s="5">
+        <v>41</v>
+      </c>
+      <c r="AF67" s="5">
+        <v>42</v>
+      </c>
+      <c r="AG67" s="5">
+        <v>43</v>
+      </c>
+      <c r="AH67" s="5">
+        <v>44</v>
+      </c>
+      <c r="AI67" s="5">
+        <v>45</v>
+      </c>
+      <c r="AJ67" s="5">
+        <v>46</v>
+      </c>
+      <c r="AK67" s="6">
+        <v>47</v>
+      </c>
+      <c r="AL67" s="22">
+        <v>2</v>
+      </c>
       <c r="AM67" s="63"/>
-      <c r="AN67" s="11">
-        <v>5</v>
-      </c>
-      <c r="AO67" s="4">
-        <v>40</v>
-      </c>
-      <c r="AP67" s="5">
-        <v>41</v>
-      </c>
-      <c r="AQ67" s="5">
-        <v>42</v>
-      </c>
-      <c r="AR67" s="5">
-        <v>43</v>
-      </c>
-      <c r="AS67" s="5">
-        <v>44</v>
-      </c>
-      <c r="AT67" s="5">
-        <v>45</v>
-      </c>
-      <c r="AU67" s="5">
-        <v>46</v>
-      </c>
-      <c r="AV67" s="6">
-        <v>47</v>
-      </c>
-      <c r="AW67" s="32">
-        <v>2</v>
-      </c>
       <c r="AX67" s="63"/>
       <c r="AY67" s="63"/>
       <c r="AZ67" s="63"/>
       <c r="BA67" s="63"/>
       <c r="BB67" s="63"/>
       <c r="BC67" s="63"/>
-      <c r="BD67" s="63"/>
-      <c r="BE67" s="63"/>
-      <c r="BF67" s="63"/>
-      <c r="BG67" s="63"/>
       <c r="BH67" s="63"/>
       <c r="BI67" s="63"/>
       <c r="BJ67" s="63"/>
       <c r="BK67" s="63"/>
       <c r="BL67" s="63"/>
     </row>
-    <row r="68" spans="29:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG68" s="63"/>
-      <c r="AH68" s="58">
-        <v>2</v>
-      </c>
-      <c r="AI68" s="59">
-        <v>3</v>
-      </c>
-      <c r="AJ68" s="60">
-        <v>4</v>
-      </c>
-      <c r="AK68" s="61">
-        <v>5</v>
-      </c>
-      <c r="AL68" s="63"/>
+    <row r="68" spans="18:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC68" s="40">
+        <v>6</v>
+      </c>
+      <c r="AD68" s="4">
+        <v>48</v>
+      </c>
+      <c r="AE68" s="5">
+        <v>49</v>
+      </c>
+      <c r="AF68" s="5">
+        <v>50</v>
+      </c>
+      <c r="AG68" s="5">
+        <v>51</v>
+      </c>
+      <c r="AH68" s="5">
+        <v>52</v>
+      </c>
+      <c r="AI68" s="5">
+        <v>53</v>
+      </c>
+      <c r="AJ68" s="5">
+        <v>54</v>
+      </c>
+      <c r="AK68" s="6">
+        <v>55</v>
+      </c>
+      <c r="AL68" s="23">
+        <v>1</v>
+      </c>
       <c r="AM68" s="63"/>
-      <c r="AN68" s="11">
-        <v>6</v>
-      </c>
-      <c r="AO68" s="4">
-        <v>48</v>
-      </c>
-      <c r="AP68" s="5">
-        <v>49</v>
-      </c>
-      <c r="AQ68" s="5">
-        <v>50</v>
-      </c>
-      <c r="AR68" s="5">
-        <v>51</v>
-      </c>
-      <c r="AS68" s="5">
-        <v>52</v>
-      </c>
-      <c r="AT68" s="5">
-        <v>53</v>
-      </c>
-      <c r="AU68" s="5">
-        <v>54</v>
-      </c>
-      <c r="AV68" s="6">
-        <v>55</v>
-      </c>
-      <c r="AW68" s="31">
-        <v>1</v>
-      </c>
+      <c r="AP68" s="57">
+        <v>0</v>
+      </c>
+      <c r="AR68" s="64"/>
+      <c r="AS68" s="64"/>
       <c r="AX68" s="63"/>
       <c r="AY68" s="63"/>
       <c r="AZ68" s="63"/>
       <c r="BA68" s="63"/>
       <c r="BB68" s="63"/>
       <c r="BC68" s="63"/>
-      <c r="BD68" s="63"/>
-      <c r="BE68" s="63"/>
-      <c r="BF68" s="63"/>
-      <c r="BG68" s="63"/>
       <c r="BH68" s="63"/>
       <c r="BI68" s="63"/>
       <c r="BJ68" s="63"/>
       <c r="BK68" s="63"/>
       <c r="BL68" s="63"/>
     </row>
-    <row r="69" spans="29:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG69" s="63"/>
-      <c r="AH69" s="64"/>
-      <c r="AJ69" s="62">
-        <v>6</v>
-      </c>
-      <c r="AK69" s="64"/>
-      <c r="AL69" s="63"/>
-      <c r="AM69" s="63"/>
-      <c r="AN69" s="12">
+    <row r="69" spans="18:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB69" s="82">
+        <v>4</v>
+      </c>
+      <c r="AC69" s="41">
         <v>7</v>
       </c>
-      <c r="AO69" s="7">
+      <c r="AD69" s="7">
         <v>56</v>
       </c>
-      <c r="AP69" s="8">
+      <c r="AE69" s="8">
         <v>57</v>
       </c>
-      <c r="AQ69" s="8">
+      <c r="AF69" s="8">
         <v>58</v>
       </c>
-      <c r="AR69" s="8">
+      <c r="AG69" s="8">
         <v>59</v>
       </c>
-      <c r="AS69" s="8">
+      <c r="AH69" s="8">
         <v>60</v>
       </c>
-      <c r="AT69" s="8">
+      <c r="AI69" s="8">
         <v>61</v>
       </c>
-      <c r="AU69" s="8">
+      <c r="AJ69" s="8">
         <v>62</v>
       </c>
-      <c r="AV69" s="9">
+      <c r="AK69" s="9">
         <v>63</v>
       </c>
-      <c r="AW69" s="32">
+      <c r="AL69" s="22">
         <v>0</v>
+      </c>
+      <c r="AM69" s="82">
+        <v>2</v>
+      </c>
+      <c r="AP69" s="58">
+        <v>1</v>
+      </c>
+      <c r="AQ69" s="59">
+        <v>2</v>
+      </c>
+      <c r="AR69" s="60">
+        <v>3</v>
+      </c>
+      <c r="AS69" s="61">
+        <v>4</v>
       </c>
       <c r="AX69" s="63"/>
       <c r="AY69" s="63"/>
@@ -5074,48 +5060,41 @@
       <c r="BA69" s="63"/>
       <c r="BB69" s="63"/>
       <c r="BC69" s="63"/>
-      <c r="BD69" s="63"/>
-      <c r="BE69" s="63"/>
-      <c r="BF69" s="63"/>
-      <c r="BG69" s="63"/>
       <c r="BH69" s="63"/>
       <c r="BI69" s="63"/>
       <c r="BJ69" s="63"/>
     </row>
-    <row r="70" spans="29:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AG70" s="63"/>
-      <c r="AH70" s="63"/>
-      <c r="AI70" s="63"/>
-      <c r="AJ70" s="63"/>
-      <c r="AK70" s="63"/>
-      <c r="AL70" s="63"/>
-      <c r="AM70" s="63"/>
-      <c r="AN70" s="63"/>
-      <c r="AO70" s="21">
+    <row r="70" spans="18:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC70" s="63"/>
+      <c r="AD70" s="10">
         <v>0</v>
       </c>
-      <c r="AP70" s="22">
+      <c r="AE70" s="11">
         <v>1</v>
       </c>
-      <c r="AQ70" s="22">
+      <c r="AF70" s="11">
         <v>2</v>
       </c>
-      <c r="AR70" s="22">
+      <c r="AG70" s="11">
         <v>3</v>
       </c>
-      <c r="AS70" s="22">
+      <c r="AH70" s="11">
         <v>4</v>
       </c>
-      <c r="AT70" s="22">
+      <c r="AI70" s="11">
         <v>5</v>
       </c>
-      <c r="AU70" s="22">
+      <c r="AJ70" s="11">
         <v>6</v>
       </c>
-      <c r="AV70" s="23">
+      <c r="AK70" s="12">
         <v>7</v>
       </c>
-      <c r="AW70" s="63"/>
+      <c r="AP70" s="64"/>
+      <c r="AR70" s="62">
+        <v>5</v>
+      </c>
+      <c r="AS70" s="64"/>
       <c r="AX70" s="63"/>
       <c r="AY70" s="63"/>
       <c r="AZ70" s="63"/>
@@ -5132,118 +5111,175 @@
       <c r="BK70" s="63"/>
       <c r="BL70" s="63"/>
     </row>
-    <row r="71" spans="29:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="29:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="18:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="18:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R72" s="82">
+        <v>4</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72" s="4">
+        <v>8</v>
+      </c>
+      <c r="U72" s="4">
+        <v>16</v>
+      </c>
+      <c r="V72" s="4">
+        <v>24</v>
+      </c>
+      <c r="W72" s="4">
+        <v>32</v>
+      </c>
+      <c r="X72" s="4">
+        <v>40</v>
+      </c>
+      <c r="Y72" s="4">
+        <v>48</v>
+      </c>
+      <c r="Z72" s="7">
+        <v>56</v>
+      </c>
       <c r="AC72" s="82">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="7">
+        <v>56</v>
+      </c>
+      <c r="AE72" s="8">
+        <v>57</v>
+      </c>
+      <c r="AF72" s="8">
+        <v>58</v>
+      </c>
+      <c r="AG72" s="8">
+        <v>59</v>
+      </c>
+      <c r="AH72" s="8">
+        <v>60</v>
+      </c>
+      <c r="AI72" s="8">
+        <v>61</v>
+      </c>
+      <c r="AJ72" s="8">
+        <v>62</v>
+      </c>
+      <c r="AK72" s="9">
+        <v>63</v>
+      </c>
+      <c r="AN72" s="82">
         <v>2</v>
       </c>
-      <c r="AD72" s="1">
+      <c r="AO72" s="6">
+        <v>63</v>
+      </c>
+      <c r="AP72" s="3">
+        <v>55</v>
+      </c>
+      <c r="AQ72" s="6">
+        <v>47</v>
+      </c>
+      <c r="AR72" s="3">
+        <v>39</v>
+      </c>
+      <c r="AS72" s="6">
+        <v>31</v>
+      </c>
+      <c r="AT72" s="3">
+        <v>23</v>
+      </c>
+      <c r="AU72" s="6">
+        <v>15</v>
+      </c>
+      <c r="AV72" s="3">
+        <v>7</v>
+      </c>
+      <c r="AY72" s="82">
+        <v>3</v>
+      </c>
+      <c r="AZ72" s="3">
+        <v>7</v>
+      </c>
+      <c r="BA72" s="2">
+        <v>6</v>
+      </c>
+      <c r="BB72" s="3">
+        <v>5</v>
+      </c>
+      <c r="BC72" s="2">
+        <v>4</v>
+      </c>
+      <c r="BD72" s="3">
+        <v>3</v>
+      </c>
+      <c r="BE72" s="2">
+        <v>2</v>
+      </c>
+      <c r="BF72" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG72" s="2">
         <v>0</v>
       </c>
-      <c r="AE72" s="4">
+      <c r="BJ72" s="82">
+        <v>4</v>
+      </c>
+      <c r="BK72" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL72" s="4">
         <v>8</v>
       </c>
-      <c r="AF72" s="4">
+      <c r="BM72" s="4">
         <v>16</v>
       </c>
-      <c r="AG72" s="4">
+      <c r="BN72" s="4">
         <v>24</v>
       </c>
-      <c r="AH72" s="4">
+      <c r="BO72" s="4">
         <v>32</v>
       </c>
-      <c r="AI72" s="4">
+      <c r="BP72" s="4">
         <v>40</v>
       </c>
-      <c r="AJ72" s="4">
+      <c r="BQ72" s="4">
         <v>48</v>
       </c>
-      <c r="AK72" s="7">
+      <c r="BR72" s="7">
         <v>56</v>
       </c>
-      <c r="AN72" s="82">
+    </row>
+    <row r="73" spans="18:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R73" s="32">
+        <v>7</v>
+      </c>
+      <c r="S73" s="39">
+        <v>0</v>
+      </c>
+      <c r="T73" s="40">
+        <v>1</v>
+      </c>
+      <c r="U73" s="40">
+        <v>2</v>
+      </c>
+      <c r="V73" s="40">
         <v>3</v>
       </c>
-      <c r="AO72" s="7">
-        <v>56</v>
-      </c>
-      <c r="AP72" s="8">
-        <v>57</v>
-      </c>
-      <c r="AQ72" s="8">
-        <v>58</v>
-      </c>
-      <c r="AR72" s="8">
-        <v>59</v>
-      </c>
-      <c r="AS72" s="8">
-        <v>60</v>
-      </c>
-      <c r="AT72" s="8">
-        <v>61</v>
-      </c>
-      <c r="AU72" s="8">
-        <v>62</v>
-      </c>
-      <c r="AV72" s="9">
-        <v>63</v>
-      </c>
-      <c r="AY72" s="82">
+      <c r="W73" s="40">
         <v>4</v>
       </c>
-      <c r="AZ72" s="9">
-        <v>63</v>
-      </c>
-      <c r="BA72" s="6">
-        <v>55</v>
-      </c>
-      <c r="BB72" s="6">
-        <v>47</v>
-      </c>
-      <c r="BC72" s="6">
-        <v>39</v>
-      </c>
-      <c r="BD72" s="6">
-        <v>31</v>
-      </c>
-      <c r="BE72" s="6">
-        <v>23</v>
-      </c>
-      <c r="BF72" s="6">
-        <v>15</v>
-      </c>
-      <c r="BG72" s="3">
+      <c r="X73" s="40">
+        <v>5</v>
+      </c>
+      <c r="Y73" s="40">
+        <v>6</v>
+      </c>
+      <c r="Z73" s="41">
         <v>7</v>
       </c>
-      <c r="BJ72" s="82">
-        <v>5</v>
-      </c>
-      <c r="BK72" s="3">
-        <v>7</v>
-      </c>
-      <c r="BL72" s="2">
-        <v>6</v>
-      </c>
-      <c r="BM72" s="2">
-        <v>5</v>
-      </c>
-      <c r="BN72" s="2">
-        <v>4</v>
-      </c>
-      <c r="BO72" s="2">
-        <v>3</v>
-      </c>
-      <c r="BP72" s="2">
-        <v>2</v>
-      </c>
-      <c r="BQ72" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR72" s="1">
+      <c r="AA73" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="29:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC73" s="41">
         <v>7</v>
       </c>
@@ -5365,7 +5401,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="29:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="18:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R74" s="35">
+        <v>15</v>
+      </c>
+      <c r="S74" s="42">
+        <v>8</v>
+      </c>
+      <c r="T74" s="43">
+        <v>9</v>
+      </c>
+      <c r="U74" s="43">
+        <v>10</v>
+      </c>
+      <c r="V74" s="43">
+        <v>11</v>
+      </c>
+      <c r="W74" s="43">
+        <v>12</v>
+      </c>
+      <c r="X74" s="43">
+        <v>13</v>
+      </c>
+      <c r="Y74" s="43">
+        <v>14</v>
+      </c>
+      <c r="Z74" s="44">
+        <v>15</v>
+      </c>
+      <c r="AA74" s="13">
+        <v>8</v>
+      </c>
       <c r="AC74" s="44">
         <v>15</v>
       </c>
@@ -5487,7 +5553,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="29:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="18:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R75" s="35">
+        <v>23</v>
+      </c>
+      <c r="S75" s="42">
+        <v>16</v>
+      </c>
+      <c r="T75" s="43">
+        <v>17</v>
+      </c>
+      <c r="U75" s="43">
+        <v>18</v>
+      </c>
+      <c r="V75" s="43">
+        <v>19</v>
+      </c>
+      <c r="W75" s="43">
+        <v>20</v>
+      </c>
+      <c r="X75" s="43">
+        <v>21</v>
+      </c>
+      <c r="Y75" s="43">
+        <v>22</v>
+      </c>
+      <c r="Z75" s="44">
+        <v>23</v>
+      </c>
+      <c r="AA75" s="13">
+        <v>16</v>
+      </c>
       <c r="AC75" s="44">
         <v>23</v>
       </c>
@@ -5609,7 +5705,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="29:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="18:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R76" s="35">
+        <v>31</v>
+      </c>
+      <c r="S76" s="42">
+        <v>24</v>
+      </c>
+      <c r="T76" s="43">
+        <v>25</v>
+      </c>
+      <c r="U76" s="43">
+        <v>26</v>
+      </c>
+      <c r="V76" s="43">
+        <v>27</v>
+      </c>
+      <c r="W76" s="43">
+        <v>28</v>
+      </c>
+      <c r="X76" s="43">
+        <v>29</v>
+      </c>
+      <c r="Y76" s="43">
+        <v>30</v>
+      </c>
+      <c r="Z76" s="44">
+        <v>31</v>
+      </c>
+      <c r="AA76" s="13">
+        <v>24</v>
+      </c>
       <c r="AC76" s="44">
         <v>31</v>
       </c>
@@ -5731,7 +5857,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="29:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="18:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R77" s="35">
+        <v>39</v>
+      </c>
+      <c r="S77" s="42">
+        <v>32</v>
+      </c>
+      <c r="T77" s="43">
+        <v>33</v>
+      </c>
+      <c r="U77" s="43">
+        <v>34</v>
+      </c>
+      <c r="V77" s="43">
+        <v>35</v>
+      </c>
+      <c r="W77" s="43">
+        <v>36</v>
+      </c>
+      <c r="X77" s="43">
+        <v>37</v>
+      </c>
+      <c r="Y77" s="43">
+        <v>38</v>
+      </c>
+      <c r="Z77" s="44">
+        <v>39</v>
+      </c>
+      <c r="AA77" s="13">
+        <v>32</v>
+      </c>
       <c r="AC77" s="44">
         <v>39</v>
       </c>
@@ -5853,7 +6009,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="29:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="18:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R78" s="35">
+        <v>47</v>
+      </c>
+      <c r="S78" s="42">
+        <v>40</v>
+      </c>
+      <c r="T78" s="43">
+        <v>41</v>
+      </c>
+      <c r="U78" s="43">
+        <v>42</v>
+      </c>
+      <c r="V78" s="43">
+        <v>43</v>
+      </c>
+      <c r="W78" s="43">
+        <v>44</v>
+      </c>
+      <c r="X78" s="43">
+        <v>45</v>
+      </c>
+      <c r="Y78" s="43">
+        <v>46</v>
+      </c>
+      <c r="Z78" s="44">
+        <v>47</v>
+      </c>
+      <c r="AA78" s="13">
+        <v>40</v>
+      </c>
       <c r="AC78" s="44">
         <v>47</v>
       </c>
@@ -5975,7 +6161,37 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="29:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="18:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R79" s="35">
+        <v>55</v>
+      </c>
+      <c r="S79" s="42">
+        <v>48</v>
+      </c>
+      <c r="T79" s="43">
+        <v>49</v>
+      </c>
+      <c r="U79" s="43">
+        <v>50</v>
+      </c>
+      <c r="V79" s="43">
+        <v>51</v>
+      </c>
+      <c r="W79" s="43">
+        <v>52</v>
+      </c>
+      <c r="X79" s="43">
+        <v>53</v>
+      </c>
+      <c r="Y79" s="43">
+        <v>54</v>
+      </c>
+      <c r="Z79" s="44">
+        <v>55</v>
+      </c>
+      <c r="AA79" s="13">
+        <v>48</v>
+      </c>
       <c r="AC79" s="44">
         <v>55</v>
       </c>
@@ -6097,7 +6313,37 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="29:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="18:71" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R80" s="38">
+        <v>63</v>
+      </c>
+      <c r="S80" s="45">
+        <v>56</v>
+      </c>
+      <c r="T80" s="46">
+        <v>57</v>
+      </c>
+      <c r="U80" s="46">
+        <v>58</v>
+      </c>
+      <c r="V80" s="46">
+        <v>59</v>
+      </c>
+      <c r="W80" s="46">
+        <v>60</v>
+      </c>
+      <c r="X80" s="46">
+        <v>61</v>
+      </c>
+      <c r="Y80" s="46">
+        <v>62</v>
+      </c>
+      <c r="Z80" s="47">
+        <v>63</v>
+      </c>
+      <c r="AA80" s="16">
+        <v>56</v>
+      </c>
       <c r="AC80" s="47">
         <v>63</v>
       </c>
@@ -6219,7 +6465,32 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="30:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="19:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S81" s="50">
+        <v>7</v>
+      </c>
+      <c r="T81" s="53">
+        <v>15</v>
+      </c>
+      <c r="U81" s="53">
+        <v>23</v>
+      </c>
+      <c r="V81" s="53">
+        <v>31</v>
+      </c>
+      <c r="W81" s="53">
+        <v>39</v>
+      </c>
+      <c r="X81" s="53">
+        <v>47</v>
+      </c>
+      <c r="Y81" s="53">
+        <v>55</v>
+      </c>
+      <c r="Z81" s="56">
+        <v>63</v>
+      </c>
+      <c r="AA81" s="63"/>
       <c r="AD81" s="56">
         <v>63</v>
       </c>
@@ -6323,7 +6594,7 @@
       <c r="BT81" s="63"/>
       <c r="BU81" s="63"/>
     </row>
-    <row r="82" spans="30:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="19:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG82" s="63"/>
       <c r="AH82" s="63"/>
       <c r="AI82" s="63"/>
@@ -6371,7 +6642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="30:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="19:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH83" s="63"/>
       <c r="AI83" s="63"/>
       <c r="AR83" s="63"/>
@@ -6382,7 +6653,7 @@
       <c r="AW83" s="63"/>
       <c r="AX83" s="63"/>
       <c r="AY83" s="82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ83" s="36">
         <v>56</v>
@@ -6414,7 +6685,7 @@
       <c r="BK83" s="63"/>
       <c r="BL83" s="63"/>
     </row>
-    <row r="84" spans="30:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="19:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH84" s="63"/>
       <c r="AI84" s="63"/>
       <c r="AJ84" s="63"/>
@@ -6459,7 +6730,7 @@
       <c r="BK84" s="63"/>
       <c r="BL84" s="63"/>
     </row>
-    <row r="85" spans="30:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="19:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH85" s="63"/>
       <c r="AI85" s="63"/>
       <c r="AJ85" s="63"/>
@@ -6504,7 +6775,7 @@
       <c r="BK85" s="63"/>
       <c r="BL85" s="63"/>
     </row>
-    <row r="86" spans="30:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="19:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH86" s="63"/>
       <c r="AI86" s="63"/>
       <c r="AJ86" s="63"/>
@@ -6549,7 +6820,7 @@
       <c r="BK86" s="63"/>
       <c r="BL86" s="63"/>
     </row>
-    <row r="87" spans="30:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="19:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH87" s="63"/>
       <c r="AI87" s="63"/>
       <c r="AJ87" s="63"/>
@@ -6590,7 +6861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="30:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="19:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH88" s="63"/>
       <c r="AI88" s="63"/>
       <c r="AJ88" s="63"/>
@@ -6635,7 +6906,7 @@
       <c r="BK88" s="63"/>
       <c r="BL88" s="63"/>
     </row>
-    <row r="89" spans="30:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="19:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AN89" s="63"/>
       <c r="AW89" s="63"/>
       <c r="AX89" s="63"/>
@@ -6670,7 +6941,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="30:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="19:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AN90" s="63"/>
       <c r="AW90" s="63"/>
       <c r="AX90" s="63"/>
@@ -6705,7 +6976,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="30:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="19:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AN91" s="63"/>
       <c r="AW91" s="63"/>
       <c r="AX91" s="63"/>
@@ -6740,7 +7011,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="30:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="19:73" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AO92" s="63"/>
       <c r="AP92" s="63"/>
       <c r="AQ92" s="63"/>
